--- a/Cycle2DOC/Planned_Code.xlsx
+++ b/Cycle2DOC/Planned_Code.xlsx
@@ -19,48 +19,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>calendarDemo.php</t>
-  </si>
-  <si>
-    <t>insertForm.php</t>
-  </si>
-  <si>
-    <t>printOutForm.php</t>
-  </si>
-  <si>
     <t>Fuctionality</t>
   </si>
   <si>
-    <t>Calendar populates with events stored in reservation table of DB1</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>implement php event filling queries</t>
-  </si>
-  <si>
-    <t>Implement php submit reservation queries</t>
-  </si>
-  <si>
-    <t>Reservation Form creates Reservation in reservation table of DB1 on submit</t>
-  </si>
-  <si>
-    <t>Implement php autofill queries</t>
-  </si>
-  <si>
-    <t>Driver Form autofills with desired reservation data</t>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Goal #</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Add Auto Filling Features the Driver Print Out Form</t>
+  </si>
+  <si>
+    <t>Client clicks on event from calendar, resulting driver form displays event information</t>
+  </si>
+  <si>
+    <t>Calendar Event Population</t>
+  </si>
+  <si>
+    <t>Client views calendar, calendar shows all reservations stored in reservation table, on the date of the reservation</t>
+  </si>
+  <si>
+    <t>Rework Forms to better suit customer</t>
+  </si>
+  <si>
+    <t>Client is provided needed fields, such as pick up address previously not included</t>
+  </si>
+  <si>
+    <t>Implement Reservation Saving abilities</t>
+  </si>
+  <si>
+    <t>Client inserts information in the Reservation form, after clicking submit the a new reservation with the correct information is added to the table</t>
+  </si>
+  <si>
+    <t>Client is provided needed fields, previously not included</t>
+  </si>
+  <si>
+    <t>Update Client</t>
+  </si>
+  <si>
+    <t>Latest material sent to customer for review</t>
+  </si>
+  <si>
+    <t>Implement Car Availability Features</t>
+  </si>
+  <si>
+    <t>Client can easily tell when a particular car is in use and when it is available</t>
+  </si>
+  <si>
+    <t>Code Freeze</t>
+  </si>
+  <si>
+    <t>Freeze code changes to focus on review</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Document Progress and Plan for next Cycle</t>
   </si>
 </sst>
 </file>
@@ -109,8 +136,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -134,7 +173,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -143,6 +182,12 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -151,9 +196,18 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -163,11 +217,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:D5" totalsRowShown="0">
-  <autoFilter ref="A2:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Goal" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:E11" totalsRowShown="0">
+  <autoFilter ref="A2:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Week"/>
+    <tableColumn id="2" name="Goal #" dataDxfId="1"/>
+    <tableColumn id="5" name="Description" dataDxfId="0"/>
     <tableColumn id="4" name="Fuctionality"/>
     <tableColumn id="3" name="Status"/>
   </tableColumns>
@@ -497,73 +552,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="A2" sqref="A2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="76" customHeight="1">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55" customHeight="1">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50" customHeight="1">
-      <c r="A4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38" customHeight="1">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
